--- a/Code/Results/Cases/Case_3_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_238/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.44206335957175</v>
+        <v>22.59366136756072</v>
       </c>
       <c r="C2">
-        <v>17.45656277652065</v>
+        <v>9.767139270066103</v>
       </c>
       <c r="D2">
-        <v>5.143946457166768</v>
+        <v>7.827313039962065</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.15730866268819</v>
+        <v>41.16730046323628</v>
       </c>
       <c r="G2">
-        <v>2.077379420339188</v>
+        <v>3.70617917375858</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.231376283072</v>
+        <v>10.3155031456119</v>
       </c>
       <c r="M2">
-        <v>14.60414594719321</v>
+        <v>18.25970347627684</v>
       </c>
       <c r="N2">
-        <v>14.34217185289198</v>
+        <v>21.06090081141447</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.71210857840734</v>
+        <v>22.16509135479668</v>
       </c>
       <c r="C3">
-        <v>16.24380481715654</v>
+        <v>9.154281415116335</v>
       </c>
       <c r="D3">
-        <v>5.200793009742371</v>
+        <v>7.849477109082049</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.26019969410889</v>
+        <v>40.83119117588051</v>
       </c>
       <c r="G3">
-        <v>2.090197968729839</v>
+        <v>3.710603636976363</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.189232067313</v>
+        <v>10.33156464479052</v>
       </c>
       <c r="M3">
-        <v>13.95689454008708</v>
+        <v>18.19273374030685</v>
       </c>
       <c r="N3">
-        <v>14.52637156534471</v>
+        <v>21.11271908439058</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.61287950688222</v>
+        <v>21.90513216058519</v>
       </c>
       <c r="C4">
-        <v>15.4644078804628</v>
+        <v>8.755487409366026</v>
       </c>
       <c r="D4">
-        <v>5.23895130142408</v>
+        <v>7.864124422259168</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.09634831499159</v>
+        <v>40.63551613417289</v>
       </c>
       <c r="G4">
-        <v>2.098220911190296</v>
+        <v>3.713459174138749</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.166578258739475</v>
+        <v>10.34279304929871</v>
       </c>
       <c r="M4">
-        <v>13.5576312016074</v>
+        <v>18.15588074907541</v>
       </c>
       <c r="N4">
-        <v>14.64455923097594</v>
+        <v>21.14648747776306</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.1557499642398</v>
+        <v>21.80015319799513</v>
       </c>
       <c r="C5">
-        <v>15.13787882063566</v>
+        <v>8.587323182169532</v>
       </c>
       <c r="D5">
-        <v>5.255265387411281</v>
+        <v>7.870353893361699</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.62265332422614</v>
+        <v>40.55853134252719</v>
       </c>
       <c r="G5">
-        <v>2.10153246465516</v>
+        <v>3.714657899302115</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.158132613583219</v>
+        <v>10.34771236352925</v>
       </c>
       <c r="M5">
-        <v>13.39461986439564</v>
+        <v>18.14194507421912</v>
       </c>
       <c r="N5">
-        <v>14.69395477311988</v>
+        <v>21.16073876447976</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.07929488020861</v>
+        <v>21.78278384093613</v>
       </c>
       <c r="C6">
-        <v>15.08311545674909</v>
+        <v>8.559058485035955</v>
       </c>
       <c r="D6">
-        <v>5.258019039010782</v>
+        <v>7.871404014013018</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.54404367111943</v>
+        <v>40.545916201538</v>
       </c>
       <c r="G6">
-        <v>2.102084996557672</v>
+        <v>3.714859069084084</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.156776989315686</v>
+        <v>10.34854996725675</v>
       </c>
       <c r="M6">
-        <v>13.36753854960828</v>
+        <v>18.13969667588292</v>
       </c>
       <c r="N6">
-        <v>14.70223012610728</v>
+        <v>21.16313478719852</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.60675144622126</v>
+        <v>21.90371229891824</v>
       </c>
       <c r="C7">
-        <v>15.46004052651317</v>
+        <v>8.753242364591673</v>
       </c>
       <c r="D7">
-        <v>5.23916829079459</v>
+        <v>7.864207380762059</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.0899570158283</v>
+        <v>40.63446665712617</v>
       </c>
       <c r="G7">
-        <v>2.098265396506091</v>
+        <v>3.713475198374748</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.166461207251572</v>
+        <v>10.3428580014642</v>
       </c>
       <c r="M7">
-        <v>13.55543379085206</v>
+        <v>18.15568841446002</v>
       </c>
       <c r="N7">
-        <v>14.64522045958238</v>
+        <v>21.1466776905016</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.85330585015328</v>
+        <v>22.44532283022811</v>
       </c>
       <c r="C8">
-        <v>17.04550399212564</v>
+        <v>9.560496249969757</v>
       </c>
       <c r="D8">
-        <v>5.162836956784454</v>
+        <v>7.834739330879237</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.50315137906619</v>
+        <v>41.04923012833949</v>
       </c>
       <c r="G8">
-        <v>2.081770071398616</v>
+        <v>3.707675986713997</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.216161050377975</v>
+        <v>10.32075752954645</v>
       </c>
       <c r="M8">
-        <v>14.38144046486408</v>
+        <v>18.23573274125779</v>
       </c>
       <c r="N8">
-        <v>14.40459749578472</v>
+        <v>21.07836242204757</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.21107833715397</v>
+        <v>23.52588843953402</v>
       </c>
       <c r="C9">
-        <v>19.88804196412907</v>
+        <v>10.96506816656416</v>
       </c>
       <c r="D9">
-        <v>5.041820683044829</v>
+        <v>7.785218261366807</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.23441797243228</v>
+        <v>41.94436233221283</v>
       </c>
       <c r="G9">
-        <v>2.050436929778989</v>
+        <v>3.697399309191982</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.340353755432727</v>
+        <v>10.28826119426183</v>
       </c>
       <c r="M9">
-        <v>15.98162020081677</v>
+        <v>18.42608625560391</v>
       </c>
       <c r="N9">
-        <v>13.97565363388555</v>
+        <v>20.95990034227226</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.23487119330922</v>
+        <v>24.32211455477156</v>
       </c>
       <c r="C10">
-        <v>21.82885255701756</v>
+        <v>11.88857130425552</v>
       </c>
       <c r="D10">
-        <v>4.975099099705369</v>
+        <v>7.753910341463641</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.70803535863458</v>
+        <v>42.64738615030132</v>
       </c>
       <c r="G10">
-        <v>2.027725860194834</v>
+        <v>3.69050775640237</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.449630118582593</v>
+        <v>10.27099514995182</v>
       </c>
       <c r="M10">
-        <v>17.34196451813208</v>
+        <v>18.58558553511013</v>
       </c>
       <c r="N10">
-        <v>13.69107478491143</v>
+        <v>20.88234200254692</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.56667641408603</v>
+        <v>24.6830402169081</v>
       </c>
       <c r="C11">
-        <v>22.68369783149743</v>
+        <v>12.28528165010505</v>
       </c>
       <c r="D11">
-        <v>4.950870615171342</v>
+        <v>7.740777791035937</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.29046267032317</v>
+        <v>42.97602127330254</v>
       </c>
       <c r="G11">
-        <v>2.017379390118408</v>
+        <v>3.687513683816277</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.503689205641814</v>
+        <v>10.26457479728427</v>
       </c>
       <c r="M11">
-        <v>18.03607252487424</v>
+        <v>18.66223661839261</v>
       </c>
       <c r="N11">
-        <v>13.56954480665318</v>
+        <v>20.84912213925351</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.06521558643046</v>
+        <v>24.81938664341913</v>
       </c>
       <c r="C12">
-        <v>23.00376566888545</v>
+        <v>12.43215340710257</v>
       </c>
       <c r="D12">
-        <v>4.942710001436825</v>
+        <v>7.735965123093662</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.89046273130827</v>
+        <v>43.10164391457549</v>
       </c>
       <c r="G12">
-        <v>2.013451188948392</v>
+        <v>3.686400020210465</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.524826255870468</v>
+        <v>10.26234967191525</v>
       </c>
       <c r="M12">
-        <v>18.29560814447293</v>
+        <v>18.69183456542808</v>
       </c>
       <c r="N12">
-        <v>13.52480332600321</v>
+        <v>20.83683975616675</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.95809463225879</v>
+        <v>24.79003881863762</v>
       </c>
       <c r="C13">
-        <v>22.93498852590092</v>
+        <v>12.40067092779559</v>
       </c>
       <c r="D13">
-        <v>4.944420052228184</v>
+        <v>7.73699447312048</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.76119859658821</v>
+        <v>43.07453805566423</v>
       </c>
       <c r="G13">
-        <v>2.01429779379643</v>
+        <v>3.686638974659761</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.520243681907144</v>
+        <v>10.26281972692743</v>
       </c>
       <c r="M13">
-        <v>18.23985476408763</v>
+        <v>18.68543496422908</v>
       </c>
       <c r="N13">
-        <v>13.53437977084345</v>
+        <v>20.83947175373881</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.60780430010975</v>
+        <v>24.69426489841621</v>
       </c>
       <c r="C14">
-        <v>22.71010058058705</v>
+        <v>12.2974320289496</v>
       </c>
       <c r="D14">
-        <v>4.95017806274961</v>
+        <v>7.740378631829378</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.33980637840527</v>
+        <v>42.98633330524325</v>
       </c>
       <c r="G14">
-        <v>2.017056470100049</v>
+        <v>3.687421659466245</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.505414561543772</v>
+        <v>10.26438760451779</v>
       </c>
       <c r="M14">
-        <v>18.05748923633069</v>
+        <v>18.66466029887992</v>
       </c>
       <c r="N14">
-        <v>13.56583735585514</v>
+        <v>20.84810569815182</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.39250423525388</v>
+        <v>24.6355537011601</v>
       </c>
       <c r="C15">
-        <v>22.57188830623296</v>
+        <v>12.23375878821958</v>
       </c>
       <c r="D15">
-        <v>4.953841446444079</v>
+        <v>7.742472432010686</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.08180816045885</v>
+        <v>42.93245563993664</v>
       </c>
       <c r="G15">
-        <v>2.018744647740591</v>
+        <v>3.687903693486038</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.496419340039268</v>
+        <v>10.26537481479127</v>
       </c>
       <c r="M15">
-        <v>17.94536322591717</v>
+        <v>18.65200916972582</v>
       </c>
       <c r="N15">
-        <v>13.58527727209003</v>
+        <v>20.85343297376583</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.14699546972664</v>
+        <v>24.29848895620395</v>
       </c>
       <c r="C16">
-        <v>21.77245403570646</v>
+        <v>11.86217542556909</v>
       </c>
       <c r="D16">
-        <v>4.976816621100664</v>
+        <v>7.754790978927232</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.60469909472989</v>
+        <v>42.62607873309545</v>
       </c>
       <c r="G16">
-        <v>2.02840106300744</v>
+        <v>3.690706250077235</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.446188093819365</v>
+        <v>10.27144358478924</v>
       </c>
       <c r="M16">
-        <v>17.29612397650794</v>
+        <v>18.58065717006498</v>
       </c>
       <c r="N16">
-        <v>13.69918783279799</v>
+        <v>20.88455455277079</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.37204478149729</v>
+        <v>24.09127775906004</v>
       </c>
       <c r="C17">
-        <v>21.27510347259202</v>
+        <v>11.6282357851426</v>
       </c>
       <c r="D17">
-        <v>4.99256766383714</v>
+        <v>7.76263275186186</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.69937576048264</v>
+        <v>42.44032120733729</v>
       </c>
       <c r="G17">
-        <v>2.034315752387123</v>
+        <v>3.692461524333403</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.416513965103475</v>
+        <v>10.27553381913148</v>
       </c>
       <c r="M17">
-        <v>16.8916349926681</v>
+        <v>18.537921934259</v>
       </c>
       <c r="N17">
-        <v>13.77118892792585</v>
+        <v>20.90417524998783</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.92216218613921</v>
+        <v>23.97198292434051</v>
       </c>
       <c r="C18">
-        <v>20.9863748942071</v>
+        <v>11.49147702972715</v>
       </c>
       <c r="D18">
-        <v>5.002194380201916</v>
+        <v>7.767247522682351</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.17883286344489</v>
+        <v>42.33431491094552</v>
       </c>
       <c r="G18">
-        <v>2.037716853787368</v>
+        <v>3.693484384879515</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.399852793354588</v>
+        <v>10.27802140161491</v>
       </c>
       <c r="M18">
-        <v>16.65661733051984</v>
+        <v>18.51372818662896</v>
       </c>
       <c r="N18">
-        <v>13.81333823502136</v>
+        <v>20.91565457527368</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.76911278213823</v>
+        <v>23.931576933688</v>
       </c>
       <c r="C19">
-        <v>20.88814764550352</v>
+        <v>11.44479422750821</v>
       </c>
       <c r="D19">
-        <v>5.005547515746692</v>
+        <v>7.76882791027989</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.00260563806158</v>
+        <v>42.29856948433207</v>
       </c>
       <c r="G19">
-        <v>2.038868483918319</v>
+        <v>3.693832991803944</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.394280287459596</v>
+        <v>10.27888684089517</v>
       </c>
       <c r="M19">
-        <v>16.57663011172042</v>
+        <v>18.5056034665188</v>
       </c>
       <c r="N19">
-        <v>13.82773191009685</v>
+        <v>20.91957457763304</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.45496591005973</v>
+        <v>24.113348446697</v>
       </c>
       <c r="C20">
-        <v>21.32832055402038</v>
+        <v>11.65336697588852</v>
       </c>
       <c r="D20">
-        <v>4.990831345836763</v>
+        <v>7.761787172100671</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.79572824328061</v>
+        <v>42.4600095067474</v>
       </c>
       <c r="G20">
-        <v>2.033686268141461</v>
+        <v>3.692273299671039</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.419630467416049</v>
+        <v>10.27508443654619</v>
       </c>
       <c r="M20">
-        <v>16.93493654473042</v>
+        <v>18.54243129810773</v>
       </c>
       <c r="N20">
-        <v>13.76344717627528</v>
+        <v>20.90206650757067</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.71084564979458</v>
+        <v>24.72240604239531</v>
       </c>
       <c r="C21">
-        <v>22.77625110147818</v>
+        <v>12.3278467279709</v>
       </c>
       <c r="D21">
-        <v>4.948458090609245</v>
+        <v>7.739380264307585</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.46355409851282</v>
+        <v>43.01221002783038</v>
       </c>
       <c r="G21">
-        <v>2.016246527829514</v>
+        <v>3.687191220837391</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.509751804750446</v>
+        <v>10.26392148764772</v>
       </c>
       <c r="M21">
-        <v>18.11114177275484</v>
+        <v>18.67074694138241</v>
       </c>
       <c r="N21">
-        <v>13.55656152376768</v>
+        <v>20.84556162553007</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.15176684431317</v>
+        <v>25.11848521554799</v>
       </c>
       <c r="C22">
-        <v>23.70154765563788</v>
+        <v>12.74911528276942</v>
       </c>
       <c r="D22">
-        <v>4.926755671730381</v>
+        <v>7.725671042827692</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.21196754045728</v>
+        <v>43.37991281824877</v>
       </c>
       <c r="G22">
-        <v>2.004784378573814</v>
+        <v>3.683987038138609</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.572556807645273</v>
+        <v>10.25782723115166</v>
       </c>
       <c r="M22">
-        <v>18.8607379956108</v>
+        <v>18.75793327276437</v>
       </c>
       <c r="N22">
-        <v>13.42889349852257</v>
+        <v>20.810365453521</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.38558803422276</v>
+        <v>24.90731674442152</v>
       </c>
       <c r="C23">
-        <v>23.20947669686324</v>
+        <v>12.52606069794442</v>
       </c>
       <c r="D23">
-        <v>4.9377400869712</v>
+        <v>7.732902094857823</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.27816488864039</v>
+        <v>43.18307143002205</v>
       </c>
       <c r="G23">
-        <v>2.010910832549277</v>
+        <v>3.685686488181684</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.53866424065748</v>
+        <v>10.26096996350785</v>
       </c>
       <c r="M23">
-        <v>18.46231115233843</v>
+        <v>18.71110190996131</v>
       </c>
       <c r="N23">
-        <v>13.49628803217776</v>
+        <v>20.82899147458822</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.4174908635287</v>
+        <v>24.10337079597934</v>
       </c>
       <c r="C24">
-        <v>21.30426984608378</v>
+        <v>11.64201221637317</v>
       </c>
       <c r="D24">
-        <v>4.991614565767781</v>
+        <v>7.762169127261211</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.75216750505166</v>
+        <v>42.45110596451474</v>
       </c>
       <c r="G24">
-        <v>2.033970855300553</v>
+        <v>3.69235835326416</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.418220257291004</v>
+        <v>10.27528717863393</v>
       </c>
       <c r="M24">
-        <v>16.91536763185245</v>
+        <v>18.54039144444146</v>
       </c>
       <c r="N24">
-        <v>13.76694488100133</v>
+        <v>20.90301924984543</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.05588739128748</v>
+        <v>23.23252584020252</v>
       </c>
       <c r="C25">
-        <v>19.14618113259911</v>
+        <v>10.60417344271383</v>
       </c>
       <c r="D25">
-        <v>5.071049886954136</v>
+        <v>7.797726458841512</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.95530112980339</v>
+        <v>41.69389572279281</v>
       </c>
       <c r="G25">
-        <v>2.058834283129435</v>
+        <v>3.700063083697186</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.303723694185932</v>
+        <v>10.29589152043482</v>
       </c>
       <c r="M25">
-        <v>15.55135836952308</v>
+        <v>18.37108442177565</v>
       </c>
       <c r="N25">
-        <v>14.08669952645196</v>
+        <v>20.99028531402024</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_238/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.59366136756072</v>
+        <v>26.44206335957175</v>
       </c>
       <c r="C2">
-        <v>9.767139270066103</v>
+        <v>17.45656277652073</v>
       </c>
       <c r="D2">
-        <v>7.827313039962065</v>
+        <v>5.143946457166834</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.16730046323628</v>
+        <v>40.15730866268819</v>
       </c>
       <c r="G2">
-        <v>3.70617917375858</v>
+        <v>2.077379420339188</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.3155031456119</v>
+        <v>6.231376283072072</v>
       </c>
       <c r="M2">
-        <v>18.25970347627684</v>
+        <v>14.60414594719322</v>
       </c>
       <c r="N2">
-        <v>21.06090081141447</v>
+        <v>14.34217185289199</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.16509135479668</v>
+        <v>24.71210857840739</v>
       </c>
       <c r="C3">
-        <v>9.154281415116335</v>
+        <v>16.24380481715664</v>
       </c>
       <c r="D3">
-        <v>7.849477109082049</v>
+        <v>5.200793009742429</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.83119117588051</v>
+        <v>38.26019969410876</v>
       </c>
       <c r="G3">
-        <v>3.710603636976363</v>
+        <v>2.090197968729841</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.33156464479052</v>
+        <v>6.189232067312998</v>
       </c>
       <c r="M3">
-        <v>18.19273374030685</v>
+        <v>13.95689454008701</v>
       </c>
       <c r="N3">
-        <v>21.11271908439058</v>
+        <v>14.52637156534458</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.90513216058519</v>
+        <v>23.61287950688219</v>
       </c>
       <c r="C4">
-        <v>8.755487409366026</v>
+        <v>15.46440788046307</v>
       </c>
       <c r="D4">
-        <v>7.864124422259168</v>
+        <v>5.238951301424012</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40.63551613417289</v>
+        <v>37.09634831499135</v>
       </c>
       <c r="G4">
-        <v>3.713459174138749</v>
+        <v>2.098220911190427</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.34279304929871</v>
+        <v>6.166578258739539</v>
       </c>
       <c r="M4">
-        <v>18.15588074907541</v>
+        <v>13.55763120160738</v>
       </c>
       <c r="N4">
-        <v>21.14648747776306</v>
+        <v>14.6445592309758</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.80015319799513</v>
+        <v>23.15574996423974</v>
       </c>
       <c r="C5">
-        <v>8.587323182169532</v>
+        <v>15.13787882063547</v>
       </c>
       <c r="D5">
-        <v>7.870353893361699</v>
+        <v>5.255265387411157</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>40.55853134252719</v>
+        <v>36.62265332422599</v>
       </c>
       <c r="G5">
-        <v>3.714657899302115</v>
+        <v>2.10153246465556</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.34771236352925</v>
+        <v>6.158132613583215</v>
       </c>
       <c r="M5">
-        <v>18.14194507421912</v>
+        <v>13.39461986439559</v>
       </c>
       <c r="N5">
-        <v>21.16073876447976</v>
+        <v>14.6939547731198</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.78278384093613</v>
+        <v>23.07929488020865</v>
       </c>
       <c r="C6">
-        <v>8.559058485035955</v>
+        <v>15.08311545674908</v>
       </c>
       <c r="D6">
-        <v>7.871404014013018</v>
+        <v>5.258019039010778</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>40.545916201538</v>
+        <v>36.54404367111956</v>
       </c>
       <c r="G6">
-        <v>3.714859069084084</v>
+        <v>2.102084996557803</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.34854996725675</v>
+        <v>6.156776989315712</v>
       </c>
       <c r="M6">
-        <v>18.13969667588292</v>
+        <v>13.36753854960833</v>
       </c>
       <c r="N6">
-        <v>21.16313478719852</v>
+        <v>14.70223012610728</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.90371229891824</v>
+        <v>23.60675144622128</v>
       </c>
       <c r="C7">
-        <v>8.753242364591673</v>
+        <v>15.46004052651314</v>
       </c>
       <c r="D7">
-        <v>7.864207380762059</v>
+        <v>5.23916829079476</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.63446665712617</v>
+        <v>37.08995701582835</v>
       </c>
       <c r="G7">
-        <v>3.713475198374748</v>
+        <v>2.098265396506362</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.3428580014642</v>
+        <v>6.166461207251678</v>
       </c>
       <c r="M7">
-        <v>18.15568841446002</v>
+        <v>13.55543379085213</v>
       </c>
       <c r="N7">
-        <v>21.1466776905016</v>
+        <v>14.64522045958245</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.44532283022811</v>
+        <v>25.85330585015333</v>
       </c>
       <c r="C8">
-        <v>9.560496249969757</v>
+        <v>17.04550399212572</v>
       </c>
       <c r="D8">
-        <v>7.834739330879237</v>
+        <v>5.162836956784463</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.04923012833949</v>
+        <v>39.50315137906614</v>
       </c>
       <c r="G8">
-        <v>3.707675986713997</v>
+        <v>2.081770071398745</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.32075752954645</v>
+        <v>6.216161050378003</v>
       </c>
       <c r="M8">
-        <v>18.23573274125779</v>
+        <v>14.38144046486408</v>
       </c>
       <c r="N8">
-        <v>21.07836242204757</v>
+        <v>14.40459749578465</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.52588843953402</v>
+        <v>30.2110783371539</v>
       </c>
       <c r="C9">
-        <v>10.96506816656416</v>
+        <v>19.88804196412897</v>
       </c>
       <c r="D9">
-        <v>7.785218261366807</v>
+        <v>5.04182068304504</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.94436233221283</v>
+        <v>44.23441797243229</v>
       </c>
       <c r="G9">
-        <v>3.697399309191982</v>
+        <v>2.050436929779257</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.28826119426183</v>
+        <v>6.340353755432711</v>
       </c>
       <c r="M9">
-        <v>18.42608625560391</v>
+        <v>15.98162020081678</v>
       </c>
       <c r="N9">
-        <v>20.95990034227226</v>
+        <v>13.97565363388561</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.32211455477156</v>
+        <v>33.23487119330917</v>
       </c>
       <c r="C10">
-        <v>11.88857130425552</v>
+        <v>21.82885255701742</v>
       </c>
       <c r="D10">
-        <v>7.753910341463641</v>
+        <v>4.97509909970537</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>42.64738615030132</v>
+        <v>47.70803535863458</v>
       </c>
       <c r="G10">
-        <v>3.69050775640237</v>
+        <v>2.027725860194693</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.27099514995182</v>
+        <v>6.449630118582606</v>
       </c>
       <c r="M10">
-        <v>18.58558553511013</v>
+        <v>17.34196451813205</v>
       </c>
       <c r="N10">
-        <v>20.88234200254692</v>
+        <v>13.69107478491145</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.6830402169081</v>
+        <v>34.56667641408608</v>
       </c>
       <c r="C11">
-        <v>12.28528165010505</v>
+        <v>22.68369783149767</v>
       </c>
       <c r="D11">
-        <v>7.740777791035937</v>
+        <v>4.950870615171135</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>42.97602127330254</v>
+        <v>49.29046267032311</v>
       </c>
       <c r="G11">
-        <v>3.687513683816277</v>
+        <v>2.017379390118413</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.26457479728427</v>
+        <v>6.503689205641792</v>
       </c>
       <c r="M11">
-        <v>18.66223661839261</v>
+        <v>18.03607252487428</v>
       </c>
       <c r="N11">
-        <v>20.84912213925351</v>
+        <v>13.56954480665309</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.81938664341913</v>
+        <v>35.06521558643063</v>
       </c>
       <c r="C12">
-        <v>12.43215340710257</v>
+        <v>23.00376566888547</v>
       </c>
       <c r="D12">
-        <v>7.735965123093662</v>
+        <v>4.942710001436791</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>43.10164391457549</v>
+        <v>49.89046273130836</v>
       </c>
       <c r="G12">
-        <v>3.686400020210465</v>
+        <v>2.01345118894813</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.26234967191525</v>
+        <v>6.524826255870524</v>
       </c>
       <c r="M12">
-        <v>18.69183456542808</v>
+        <v>18.29560814447301</v>
       </c>
       <c r="N12">
-        <v>20.83683975616675</v>
+        <v>13.5248033260031</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.79003881863762</v>
+        <v>34.95809463225874</v>
       </c>
       <c r="C13">
-        <v>12.40067092779559</v>
+        <v>22.93498852590083</v>
       </c>
       <c r="D13">
-        <v>7.73699447312048</v>
+        <v>4.944420052228191</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>43.07453805566423</v>
+        <v>49.76119859658814</v>
       </c>
       <c r="G13">
-        <v>3.686638974659761</v>
+        <v>2.014297793796571</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.26281972692743</v>
+        <v>6.520243681907139</v>
       </c>
       <c r="M13">
-        <v>18.68543496422908</v>
+        <v>18.23985476408758</v>
       </c>
       <c r="N13">
-        <v>20.83947175373881</v>
+        <v>13.53437977084354</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.69426489841621</v>
+        <v>34.60780430010972</v>
       </c>
       <c r="C14">
-        <v>12.2974320289496</v>
+        <v>22.71010058058719</v>
       </c>
       <c r="D14">
-        <v>7.740378631829378</v>
+        <v>4.950178062749612</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.98633330524325</v>
+        <v>49.33980637840538</v>
       </c>
       <c r="G14">
-        <v>3.687421659466245</v>
+        <v>2.017056470100054</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.26438760451779</v>
+        <v>6.505414561543745</v>
       </c>
       <c r="M14">
-        <v>18.66466029887992</v>
+        <v>18.05748923633069</v>
       </c>
       <c r="N14">
-        <v>20.84810569815182</v>
+        <v>13.56583735585511</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.6355537011601</v>
+        <v>34.39250423525387</v>
       </c>
       <c r="C15">
-        <v>12.23375878821958</v>
+        <v>22.57188830623306</v>
       </c>
       <c r="D15">
-        <v>7.742472432010686</v>
+        <v>4.953841446444112</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>42.93245563993664</v>
+        <v>49.08180816045881</v>
       </c>
       <c r="G15">
-        <v>3.687903693486038</v>
+        <v>2.018744647740729</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.26537481479127</v>
+        <v>6.496419340039222</v>
       </c>
       <c r="M15">
-        <v>18.65200916972582</v>
+        <v>17.94536322591721</v>
       </c>
       <c r="N15">
-        <v>20.85343297376583</v>
+        <v>13.58527727208999</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.29848895620395</v>
+        <v>33.1469954697266</v>
       </c>
       <c r="C16">
-        <v>11.86217542556909</v>
+        <v>21.77245403570657</v>
       </c>
       <c r="D16">
-        <v>7.754790978927232</v>
+        <v>4.976816621100628</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.62607873309545</v>
+        <v>47.60469909472994</v>
       </c>
       <c r="G16">
-        <v>3.690706250077235</v>
+        <v>2.02840106300744</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.27144358478924</v>
+        <v>6.446188093819254</v>
       </c>
       <c r="M16">
-        <v>18.58065717006498</v>
+        <v>17.29612397650792</v>
       </c>
       <c r="N16">
-        <v>20.88455455277079</v>
+        <v>13.69918783279811</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.09127775906004</v>
+        <v>32.37204478149735</v>
       </c>
       <c r="C17">
-        <v>11.6282357851426</v>
+        <v>21.27510347259202</v>
       </c>
       <c r="D17">
-        <v>7.76263275186186</v>
+        <v>4.992567663837054</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.44032120733729</v>
+        <v>46.69937576048263</v>
       </c>
       <c r="G17">
-        <v>3.692461524333403</v>
+        <v>2.034315752386996</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.27553381913148</v>
+        <v>6.416513965103427</v>
       </c>
       <c r="M17">
-        <v>18.537921934259</v>
+        <v>16.89163499266814</v>
       </c>
       <c r="N17">
-        <v>20.90417524998783</v>
+        <v>13.77118892792582</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.97198292434051</v>
+        <v>31.92216218613918</v>
       </c>
       <c r="C18">
-        <v>11.49147702972715</v>
+        <v>20.98637489420722</v>
       </c>
       <c r="D18">
-        <v>7.767247522682351</v>
+        <v>5.002194380201806</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.33431491094552</v>
+        <v>46.1788328634449</v>
       </c>
       <c r="G18">
-        <v>3.693484384879515</v>
+        <v>2.037716853787368</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.27802140161491</v>
+        <v>6.399852793354491</v>
       </c>
       <c r="M18">
-        <v>18.51372818662896</v>
+        <v>16.65661733051984</v>
       </c>
       <c r="N18">
-        <v>20.91565457527368</v>
+        <v>13.81333823502136</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.931576933688</v>
+        <v>31.76911278213826</v>
       </c>
       <c r="C19">
-        <v>11.44479422750821</v>
+        <v>20.88814764550369</v>
       </c>
       <c r="D19">
-        <v>7.76882791027989</v>
+        <v>5.005547515746732</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.29856948433207</v>
+        <v>46.00260563806167</v>
       </c>
       <c r="G19">
-        <v>3.693832991803944</v>
+        <v>2.038868483918444</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.27888684089517</v>
+        <v>6.394280287459598</v>
       </c>
       <c r="M19">
-        <v>18.5056034665188</v>
+        <v>16.57663011172045</v>
       </c>
       <c r="N19">
-        <v>20.91957457763304</v>
+        <v>13.82773191009687</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.113348446697</v>
+        <v>32.45496591005963</v>
       </c>
       <c r="C20">
-        <v>11.65336697588852</v>
+        <v>21.32832055402035</v>
       </c>
       <c r="D20">
-        <v>7.761787172100671</v>
+        <v>4.990831345836718</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.4600095067474</v>
+        <v>46.79572824328045</v>
       </c>
       <c r="G20">
-        <v>3.692273299671039</v>
+        <v>2.033686268141594</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.27508443654619</v>
+        <v>6.419630467416009</v>
       </c>
       <c r="M20">
-        <v>18.54243129810773</v>
+        <v>16.93493654473038</v>
       </c>
       <c r="N20">
-        <v>20.90206650757067</v>
+        <v>13.76344717627535</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.72240604239531</v>
+        <v>34.71084564979463</v>
       </c>
       <c r="C21">
-        <v>12.3278467279709</v>
+        <v>22.77625110147818</v>
       </c>
       <c r="D21">
-        <v>7.739380264307585</v>
+        <v>4.948458090609376</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>43.01221002783038</v>
+        <v>49.46355409851286</v>
       </c>
       <c r="G21">
-        <v>3.687191220837391</v>
+        <v>2.016246527829646</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.26392148764772</v>
+        <v>6.509751804750429</v>
       </c>
       <c r="M21">
-        <v>18.67074694138241</v>
+        <v>18.11114177275487</v>
       </c>
       <c r="N21">
-        <v>20.84556162553007</v>
+        <v>13.55656152376757</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.11848521554799</v>
+        <v>36.1517668443132</v>
       </c>
       <c r="C22">
-        <v>12.74911528276942</v>
+        <v>23.7015476556378</v>
       </c>
       <c r="D22">
-        <v>7.725671042827692</v>
+        <v>4.926755671730467</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>43.37991281824877</v>
+        <v>51.2119675404573</v>
       </c>
       <c r="G22">
-        <v>3.683987038138609</v>
+        <v>2.004784378573544</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.25782723115166</v>
+        <v>6.572556807645269</v>
       </c>
       <c r="M22">
-        <v>18.75793327276437</v>
+        <v>18.8607379956108</v>
       </c>
       <c r="N22">
-        <v>20.810365453521</v>
+        <v>13.42889349852257</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.90731674442152</v>
+        <v>35.38558803422293</v>
       </c>
       <c r="C23">
-        <v>12.52606069794442</v>
+        <v>23.20947669686327</v>
       </c>
       <c r="D23">
-        <v>7.732902094857823</v>
+        <v>4.937740086971352</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>43.18307143002205</v>
+        <v>50.27816488864054</v>
       </c>
       <c r="G23">
-        <v>3.685686488181684</v>
+        <v>2.010910832549148</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.26096996350785</v>
+        <v>6.538664240657489</v>
       </c>
       <c r="M23">
-        <v>18.71110190996131</v>
+        <v>18.4623111523385</v>
       </c>
       <c r="N23">
-        <v>20.82899147458822</v>
+        <v>13.49628803217778</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.10337079597934</v>
+        <v>32.41749086352877</v>
       </c>
       <c r="C24">
-        <v>11.64201221637317</v>
+        <v>21.30426984608377</v>
       </c>
       <c r="D24">
-        <v>7.762169127261211</v>
+        <v>4.991614565767908</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.45110596451474</v>
+        <v>46.75216750505171</v>
       </c>
       <c r="G24">
-        <v>3.69235835326416</v>
+        <v>2.033970855300553</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.27528717863393</v>
+        <v>6.418220257291056</v>
       </c>
       <c r="M24">
-        <v>18.54039144444146</v>
+        <v>16.91536763185248</v>
       </c>
       <c r="N24">
-        <v>20.90301924984543</v>
+        <v>13.76694488100132</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.23252584020252</v>
+        <v>29.05588739128752</v>
       </c>
       <c r="C25">
-        <v>10.60417344271383</v>
+        <v>19.14618113259909</v>
       </c>
       <c r="D25">
-        <v>7.797726458841512</v>
+        <v>5.071049886954093</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.69389572279281</v>
+        <v>42.95530112980347</v>
       </c>
       <c r="G25">
-        <v>3.700063083697186</v>
+        <v>2.058834283129304</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.29589152043482</v>
+        <v>6.30372369418592</v>
       </c>
       <c r="M25">
-        <v>18.37108442177565</v>
+        <v>15.5513583695231</v>
       </c>
       <c r="N25">
-        <v>20.99028531402024</v>
+        <v>14.08669952645199</v>
       </c>
       <c r="O25">
         <v>0</v>
